--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1362672.921621285</v>
+        <v>-1365312.268939307</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>244.5293512481738</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>341.656179345148</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>125.4641862354863</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>123.2541133762183</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>114.7053989184405</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>274.5565191761956</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>113.7237131066887</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>81.89701814208186</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>32.36212711058047</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>242.6337954275707</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>282.4767059583107</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>78.58151650834337</v>
       </c>
       <c r="I10" t="n">
-        <v>26.19484713400638</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>37.01163236946537</v>
       </c>
       <c r="U13" t="n">
-        <v>186.9015203136212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2834074964057</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.76947475493767</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>74.4191768313308</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>261.5505590167096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H28" t="n">
-        <v>109.090968037234</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231437</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="C2" t="n">
-        <v>709.7270322910256</v>
+        <v>1815.096543250394</v>
       </c>
       <c r="D2" t="n">
-        <v>709.7270322910256</v>
+        <v>1456.830844643644</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7276875959005</v>
+        <v>1071.042592045399</v>
       </c>
       <c r="F2" t="n">
-        <v>462.7276875959005</v>
+        <v>660.0566872557918</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>244.3519369800806</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271371</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>2184.059060190806</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>143.6627691908464</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458211</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.0498276483066</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1511.947015654075</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1511.947015654075</v>
       </c>
       <c r="U4" t="n">
-        <v>1520.582080762941</v>
+        <v>1511.947015654075</v>
       </c>
       <c r="V4" t="n">
-        <v>1265.897592557054</v>
+        <v>1511.947015654075</v>
       </c>
       <c r="W4" t="n">
-        <v>976.4804225200937</v>
+        <v>1222.529845617114</v>
       </c>
       <c r="X4" t="n">
-        <v>748.4908716220764</v>
+        <v>994.5402947190972</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.6982924785463</v>
+        <v>994.5402947190972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1203.388756704966</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2447.466890918652</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2447.466890918652</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2447.466890918652</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2447.466890918652</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2447.466890918652</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2447.466890918652</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.32755894284</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.5518826881192</v>
+        <v>400.7850803617177</v>
       </c>
       <c r="C7" t="n">
-        <v>702.6156997602124</v>
+        <v>231.8488974338108</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>231.8488974338108</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>83.93580385141772</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>83.93580385141772</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4756,19 +4756,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.344461831649</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881192</v>
+        <v>582.4335451919575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.440264581601</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>404.8710673258097</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,19 +4799,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645723</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.4774356872693</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="C10" t="n">
-        <v>555.4774356872693</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="D10" t="n">
-        <v>555.4774356872693</v>
+        <v>440.6904267128338</v>
       </c>
       <c r="E10" t="n">
-        <v>407.5643421048762</v>
+        <v>292.7773331304406</v>
       </c>
       <c r="F10" t="n">
-        <v>260.6743946069658</v>
+        <v>145.8873856325303</v>
       </c>
       <c r="G10" t="n">
-        <v>92.97155798168481</v>
+        <v>145.8873856325303</v>
       </c>
       <c r="H10" t="n">
-        <v>92.97155798168481</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>590.8070661251695</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U13" t="n">
-        <v>1788.671666052305</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V13" t="n">
-        <v>1533.987177846418</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.570007809457</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.58045691144</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,13 +5294,13 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278208</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910803</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="T16" t="n">
-        <v>2022.649975098258</v>
+        <v>2227.361618603196</v>
       </c>
       <c r="U16" t="n">
-        <v>1733.574748442456</v>
+        <v>1938.286391947394</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.890260236569</v>
+        <v>1938.286391947394</v>
       </c>
       <c r="W16" t="n">
-        <v>1189.473090199608</v>
+        <v>1648.869221910433</v>
       </c>
       <c r="X16" t="n">
-        <v>961.4835393015907</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.6909601580605</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793924</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2325.6047790701</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.003314093041</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>209.2531439449482</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.268596655246</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1458.584108449359</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.166938412398</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143809</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,49 +6212,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6263,13 +6263,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>432.9862109052757</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0962634073653</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,22 +7017,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,25 +7424,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,34 +7473,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589397</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985681</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O6" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>70.03064962107845</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.89152342780601</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>173.3460360304196</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>180.3938179578229</v>
       </c>
       <c r="U13" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>79.42624789263147</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>127.2568112467069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>26.01259675821727</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.19629618688155</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.63391537253455</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H28" t="n">
-        <v>31.20374480898992</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="N2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182248</v>
+        <v>67721.68800182256</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496496</v>
+        <v>54516.8617549651</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756672</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756646</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="N4" t="n">
+        <v>17328.05961985007</v>
+      </c>
+      <c r="O4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17328.05961985</v>
       </c>
       <c r="P4" t="n">
         <v>17328.05961985005</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1126804.705055272</v>
+        <v>-1127164.78807099</v>
       </c>
       <c r="C6" t="n">
-        <v>-65455.69215909048</v>
+        <v>-65455.69215909045</v>
       </c>
       <c r="D6" t="n">
         <v>-224876.9621569825</v>
       </c>
       <c r="E6" t="n">
-        <v>-274442.8720500176</v>
+        <v>-274477.6099754528</v>
       </c>
       <c r="F6" t="n">
-        <v>50969.58975733745</v>
+        <v>50934.8518319018</v>
       </c>
       <c r="G6" t="n">
-        <v>50969.58975733758</v>
+        <v>50934.85183190173</v>
       </c>
       <c r="H6" t="n">
-        <v>50969.58975733744</v>
+        <v>50934.85183190179</v>
       </c>
       <c r="I6" t="n">
-        <v>50969.58975733753</v>
+        <v>50934.85183190182</v>
       </c>
       <c r="J6" t="n">
-        <v>-116635.588052645</v>
+        <v>-116670.3259780808</v>
       </c>
       <c r="K6" t="n">
-        <v>50969.58975733745</v>
+        <v>50934.85183190176</v>
       </c>
       <c r="L6" t="n">
-        <v>-24005.50950273121</v>
+        <v>-24005.50950273126</v>
       </c>
       <c r="M6" t="n">
-        <v>-41338.84943642065</v>
+        <v>-41338.84943642036</v>
       </c>
       <c r="N6" t="n">
-        <v>43716.17849909127</v>
+        <v>43716.17849909133</v>
       </c>
       <c r="O6" t="n">
-        <v>43716.17849909139</v>
+        <v>43716.17849909124</v>
       </c>
       <c r="P6" t="n">
-        <v>43716.17849909129</v>
+        <v>43716.17849909124</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>137.401018824088</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.208330296499526</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>71.40834698551913</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>171.5217552027601</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>90.7163725948119</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.728502292105659</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>66.71845487613049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.9444729342237</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6390963434369</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>124.3993397834008</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>66.17349840597741</v>
       </c>
       <c r="I10" t="n">
-        <v>70.15757327583171</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-3.749876498929374e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.233276047090526e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>536.8001439125383</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488891</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>369.1789913100002</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236531</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>93.34947739681142</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9556134883069083</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>521.873694610508</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>319.7101787446108</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>394.66610999052</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001039</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>226.5827468655557</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111711</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
